--- a/Фопи/ФОПи/ФОП Місюра/Кадри Місюра/Реєстр наказів ФОП Місюра.xls.xlsx
+++ b/Фопи/ФОПи/ФОП Місюра/Кадри Місюра/Реєстр наказів ФОП Місюра.xls.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>Рудик Ю.С.</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>Переведення</t>
+  </si>
+  <si>
+    <t>Відпустка без збереження зп</t>
+  </si>
+  <si>
+    <t>Переведення на повний робочий день</t>
   </si>
 </sst>
 </file>
@@ -200,20 +206,20 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -495,78 +501,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.453125" style="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.08984375" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="9">
         <v>2021</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="6">
         <v>1</v>
       </c>
       <c r="C5" s="4">
@@ -586,7 +592,7 @@
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="4">
@@ -606,7 +612,7 @@
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="6">
         <v>2</v>
       </c>
       <c r="C7" s="4">
@@ -626,7 +632,7 @@
       <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="6">
         <v>3</v>
       </c>
       <c r="C8" s="4">
@@ -646,7 +652,7 @@
       <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="6">
         <v>4</v>
       </c>
       <c r="C9" s="4">
@@ -666,7 +672,7 @@
       <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="6">
         <v>5</v>
       </c>
       <c r="C10" s="4">
@@ -686,7 +692,7 @@
       <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="6">
         <v>6</v>
       </c>
       <c r="C11" s="3">
@@ -706,7 +712,7 @@
       <c r="A12" s="2">
         <v>8</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="6">
         <v>7</v>
       </c>
       <c r="C12" s="4">
@@ -720,6 +726,46 @@
       </c>
       <c r="F12" s="2" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6">
+        <v>7</v>
+      </c>
+      <c r="C13" s="4">
+        <v>44467</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="3">
+        <v>44470</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="29.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4">
+        <v>44467</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="3">
+        <v>44470</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Фопи/ФОПи/ФОП Місюра/Кадри Місюра/Реєстр наказів ФОП Місюра.xls.xlsx
+++ b/Фопи/ФОПи/ФОП Місюра/Кадри Місюра/Реєстр наказів ФОП Місюра.xls.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nastia\GitHub\Фопи\ФОПи\ФОП Місюра\Кадри Місюра\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Eridan\Фопи\ФОПи\ФОП Місюра\Кадри Місюра\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8295"/>
   </bookViews>
   <sheets>
     <sheet name="2021" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
   <si>
     <t>Рудик Ю.С.</t>
   </si>
@@ -223,7 +223,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -241,7 +241,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Офіс">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -279,7 +279,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Офіс">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -351,7 +351,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Офіс">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -501,24 +501,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.08984375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="1"/>
+    <col min="5" max="5" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
@@ -528,7 +528,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
@@ -538,7 +538,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -558,7 +558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>2021</v>
       </c>
@@ -568,7 +568,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -608,7 +608,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -628,7 +628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -668,7 +668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -688,7 +688,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -708,7 +708,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -728,44 +728,124 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="29.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
+        <v>9</v>
+      </c>
+      <c r="B13" s="6">
         <v>8</v>
-      </c>
-      <c r="B13" s="6">
-        <v>7</v>
       </c>
       <c r="C13" s="4">
         <v>44467</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E13" s="3">
         <v>44470</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="29.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B14" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C14" s="4">
         <v>44467</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" s="3">
         <v>44470</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>11</v>
+      </c>
+      <c r="B15" s="6">
+        <v>10</v>
+      </c>
+      <c r="C15" s="4">
+        <v>44484</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="3">
+        <v>44486</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>12</v>
+      </c>
+      <c r="B16" s="6">
+        <v>11</v>
+      </c>
+      <c r="C16" s="4">
+        <v>44484</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="3">
+        <v>44486</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>13</v>
+      </c>
+      <c r="B17" s="6">
+        <v>12</v>
+      </c>
+      <c r="C17" s="4">
+        <v>44498</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="3">
+        <v>44501</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>14</v>
+      </c>
+      <c r="B18" s="6">
+        <v>13</v>
+      </c>
+      <c r="C18" s="4">
+        <v>44498</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="3">
+        <v>44501</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Фопи/ФОПи/ФОП Місюра/Кадри Місюра/Реєстр наказів ФОП Місюра.xls.xlsx
+++ b/Фопи/ФОПи/ФОП Місюра/Кадри Місюра/Реєстр наказів ФОП Місюра.xls.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Eridan\Фопи\ФОПи\ФОП Місюра\Кадри Місюра\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nastia\GitHub\Фопи\ФОПи\ФОП Місюра\Кадри Місюра\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8295"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8292"/>
   </bookViews>
   <sheets>
     <sheet name="2021" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="21">
   <si>
     <t>Рудик Ю.С.</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Переведення на повний робочий день</t>
+  </si>
+  <si>
+    <t>Гайдащук З.Т.</t>
   </si>
 </sst>
 </file>
@@ -223,7 +226,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -241,7 +244,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Офіс">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -279,7 +282,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Офіс">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -351,7 +354,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Офіс">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -501,24 +504,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
@@ -528,7 +531,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
@@ -538,7 +541,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -558,7 +561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>2021</v>
       </c>
@@ -568,7 +571,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -588,7 +591,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -608,7 +611,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -628,7 +631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -648,7 +651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -668,7 +671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -688,7 +691,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -708,7 +711,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -728,7 +731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="29.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -748,7 +751,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -768,7 +771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -788,7 +791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -808,7 +811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -828,7 +831,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -848,11 +851,142 @@
         <v>15</v>
       </c>
     </row>
+    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>1</v>
+      </c>
+      <c r="B20" s="6">
+        <v>14</v>
+      </c>
+      <c r="C20" s="4">
+        <v>44589</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
+        <v>44593</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>2</v>
+      </c>
+      <c r="B21" s="6">
+        <v>15</v>
+      </c>
+      <c r="C21" s="4">
+        <v>44589</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="3">
+        <v>44593</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>3</v>
+      </c>
+      <c r="B22" s="6">
+        <v>16</v>
+      </c>
+      <c r="C22" s="4">
+        <v>44603</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="3">
+        <v>44606</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>4</v>
+      </c>
+      <c r="B23" s="6">
+        <v>17</v>
+      </c>
+      <c r="C23" s="4">
+        <v>44618</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="3">
+        <v>44621</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>5</v>
+      </c>
+      <c r="B24" s="6">
+        <v>18</v>
+      </c>
+      <c r="C24" s="4">
+        <v>44629</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="3">
+        <v>44631</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>6</v>
+      </c>
+      <c r="B25" s="6">
+        <v>19</v>
+      </c>
+      <c r="C25" s="4">
+        <v>44635</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="3">
+        <v>44637</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A19:F19"/>
   </mergeCells>
   <pageMargins left="0.59055118110236227" right="0.19685039370078741" top="0.19685039370078741" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Фопи/ФОПи/ФОП Місюра/Кадри Місюра/Реєстр наказів ФОП Місюра.xls.xlsx
+++ b/Фопи/ФОПи/ФОП Місюра/Кадри Місюра/Реєстр наказів ФОП Місюра.xls.xlsx
@@ -12,7 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8292"/>
   </bookViews>
   <sheets>
-    <sheet name="2021" sheetId="1" r:id="rId1"/>
+    <sheet name="2022" sheetId="3" r:id="rId1"/>
+    <sheet name="2021" sheetId="1" r:id="rId2"/>
+    <sheet name="Аркуш1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="22">
   <si>
     <t>Рудик Ю.С.</t>
   </si>
@@ -87,6 +89,9 @@
   </si>
   <si>
     <t>Гайдащук З.Т.</t>
+  </si>
+  <si>
+    <t>за 2022р.</t>
   </si>
 </sst>
 </file>
@@ -159,7 +164,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -191,11 +196,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -222,6 +264,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -504,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -533,7 +584,7 @@
     </row>
     <row r="2" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -563,7 +614,7 @@
     </row>
     <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -571,6 +622,191 @@
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
     </row>
+    <row r="5" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4">
+        <v>44589</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3">
+        <v>44593</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4">
+        <v>44603</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3">
+        <v>44606</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4">
+        <v>44618</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="3">
+        <v>44621</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44629</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3">
+        <v>44631</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4">
+        <v>44635</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="3">
+        <v>44637</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A4:F4"/>
+  </mergeCells>
+  <pageMargins left="0.59055118110236227" right="0.19685039370078741" top="0.19685039370078741" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>2021</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
     <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
@@ -852,14 +1088,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="10">
         <v>2022</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -992,4 +1228,18 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>